--- a/dataframe/filmarks_emotion_godzila.xlsx
+++ b/dataframe/filmarks_emotion_godzila.xlsx
@@ -1,43 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="17137" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>嫌</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>喜</t>
+  </si>
+  <si>
+    <t>哀</t>
+  </si>
+  <si>
+    <t>昂</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>怖</t>
+  </si>
+  <si>
+    <t>怒</t>
+  </si>
+  <si>
+    <t>恥</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>2016/07/29</t>
+  </si>
+  <si>
+    <t>2016/07/30</t>
+  </si>
+  <si>
+    <t>2016/07/31</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,94 +443,2406 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>各感情の合計値</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>好</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>嫌</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>無</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>哀</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>昂</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>安</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>怖</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>怒</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>恥</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>驚</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655416429"/>
+        <c:axId val="714128222"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655416429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714128222"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="714128222"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655416429"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ja-JP"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>各感情の合計値</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>好</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>嫌</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>無</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>哀</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>昂</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>安</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>怖</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
+                  <c:v>怒</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>恥</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>驚</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.133979015334948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.158595641646489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0770782889426957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199354317998386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0766747376916868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0899919289749798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0355125100887813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11138014527845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0645682001614205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0092816787732042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0435835351089588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ja-JP"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="768985" y="1192530"/>
+        <a:ext cx="4844415" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5708015" y="1113790"/>
+        <a:ext cx="5031740" cy="2657475"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,207 +3124,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="12.7964601769912"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>suki</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>iya</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>yorokobi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>aware</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>takaburi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>yasu</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>kowa</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ikari</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>haji</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>odoroki</t>
-        </is>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2016/07/29</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>78</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>103</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>120</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>49</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>53</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>76</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>45</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2016/07/30</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>148</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>170</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>98</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>223</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>87</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>110</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>39</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>121</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>62</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2016/07/31</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>106</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>120</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>39</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>151</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>54</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>60</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>29</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>79</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>332</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:L5" si="0">SUM(C2:C4)</f>
+        <v>393</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M5">
+        <f>SUM(B5:L5)</f>
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:L6" si="1">B5/$M5</f>
+        <v>0.133979015334948</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.158595641646489</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0770782889426957</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.199354317998386</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0766747376916868</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0899919289749798</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0355125100887813</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11138014527845</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0645682001614205</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0092816787732042</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0435835351089588</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataframe/filmarks_emotion_godzila.xlsx
+++ b/dataframe/filmarks_emotion_godzila.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17137" windowHeight="8265"/>
+    <workbookView windowWidth="17137" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>喜</t>
+  </si>
+  <si>
     <t>好</t>
   </si>
   <si>
@@ -29,37 +32,541 @@
     <t>無</t>
   </si>
   <si>
-    <t>喜</t>
+    <t>怖</t>
+  </si>
+  <si>
+    <t>昂</t>
+  </si>
+  <si>
+    <t>怒</t>
   </si>
   <si>
     <t>哀</t>
   </si>
   <si>
-    <t>昂</t>
-  </si>
-  <si>
     <t>安</t>
   </si>
   <si>
-    <t>怖</t>
-  </si>
-  <si>
-    <t>怒</t>
+    <t>驚</t>
   </si>
   <si>
     <t>恥</t>
   </si>
   <si>
-    <t>驚</t>
-  </si>
-  <si>
-    <t>2016/07/29</t>
-  </si>
-  <si>
-    <t>2016/07/30</t>
-  </si>
-  <si>
-    <t>2016/07/31</t>
+    <t>2022/05/15</t>
+  </si>
+  <si>
+    <t>2022/05/16</t>
+  </si>
+  <si>
+    <t>2022/05/17</t>
+  </si>
+  <si>
+    <t>2022/05/18</t>
+  </si>
+  <si>
+    <t>2022/05/19</t>
+  </si>
+  <si>
+    <t>2022/05/20</t>
+  </si>
+  <si>
+    <t>2022/05/21</t>
+  </si>
+  <si>
+    <t>2022/05/22</t>
+  </si>
+  <si>
+    <t>2022/05/23</t>
+  </si>
+  <si>
+    <t>2022/05/24</t>
+  </si>
+  <si>
+    <t>2022/05/25</t>
+  </si>
+  <si>
+    <t>2022/05/26</t>
+  </si>
+  <si>
+    <t>2022/05/27</t>
+  </si>
+  <si>
+    <t>2022/05/28</t>
+  </si>
+  <si>
+    <t>2022/05/29</t>
+  </si>
+  <si>
+    <t>2022/05/30</t>
+  </si>
+  <si>
+    <t>2022/05/31</t>
+  </si>
+  <si>
+    <t>2022/06/01</t>
+  </si>
+  <si>
+    <t>2022/06/02</t>
+  </si>
+  <si>
+    <t>2022/06/03</t>
+  </si>
+  <si>
+    <t>2022/06/04</t>
+  </si>
+  <si>
+    <t>2022/06/05</t>
+  </si>
+  <si>
+    <t>2022/06/06</t>
+  </si>
+  <si>
+    <t>2022/06/07</t>
+  </si>
+  <si>
+    <t>2022/06/08</t>
+  </si>
+  <si>
+    <t>2022/06/09</t>
+  </si>
+  <si>
+    <t>2022/06/10</t>
+  </si>
+  <si>
+    <t>2022/06/11</t>
+  </si>
+  <si>
+    <t>2022/06/12</t>
+  </si>
+  <si>
+    <t>2022/06/13</t>
+  </si>
+  <si>
+    <t>2022/06/14</t>
+  </si>
+  <si>
+    <t>2022/06/15</t>
+  </si>
+  <si>
+    <t>2022/06/16</t>
+  </si>
+  <si>
+    <t>2022/06/17</t>
+  </si>
+  <si>
+    <t>2022/06/18</t>
+  </si>
+  <si>
+    <t>2022/06/19</t>
+  </si>
+  <si>
+    <t>2022/06/20</t>
+  </si>
+  <si>
+    <t>2022/06/21</t>
+  </si>
+  <si>
+    <t>2022/06/22</t>
+  </si>
+  <si>
+    <t>2022/06/23</t>
+  </si>
+  <si>
+    <t>2022/06/24</t>
+  </si>
+  <si>
+    <t>2022/06/25</t>
+  </si>
+  <si>
+    <t>2022/06/26</t>
+  </si>
+  <si>
+    <t>2022/06/27</t>
+  </si>
+  <si>
+    <t>2022/06/28</t>
+  </si>
+  <si>
+    <t>2022/06/29</t>
+  </si>
+  <si>
+    <t>2022/06/30</t>
+  </si>
+  <si>
+    <t>2022/07/01</t>
+  </si>
+  <si>
+    <t>2022/07/02</t>
+  </si>
+  <si>
+    <t>2022/07/03</t>
+  </si>
+  <si>
+    <t>2022/07/04</t>
+  </si>
+  <si>
+    <t>2022/07/05</t>
+  </si>
+  <si>
+    <t>2022/07/06</t>
+  </si>
+  <si>
+    <t>2022/07/07</t>
+  </si>
+  <si>
+    <t>2022/07/08</t>
+  </si>
+  <si>
+    <t>2022/07/09</t>
+  </si>
+  <si>
+    <t>2022/07/10</t>
+  </si>
+  <si>
+    <t>2022/07/11</t>
+  </si>
+  <si>
+    <t>2022/07/12</t>
+  </si>
+  <si>
+    <t>2022/07/13</t>
+  </si>
+  <si>
+    <t>2022/07/14</t>
+  </si>
+  <si>
+    <t>2022/07/15</t>
+  </si>
+  <si>
+    <t>2022/07/16</t>
+  </si>
+  <si>
+    <t>2022/07/17</t>
+  </si>
+  <si>
+    <t>2022/07/18</t>
+  </si>
+  <si>
+    <t>2022/07/19</t>
+  </si>
+  <si>
+    <t>2022/07/20</t>
+  </si>
+  <si>
+    <t>2022/07/21</t>
+  </si>
+  <si>
+    <t>2022/07/22</t>
+  </si>
+  <si>
+    <t>2022/07/23</t>
+  </si>
+  <si>
+    <t>2022/07/24</t>
+  </si>
+  <si>
+    <t>2022/07/25</t>
+  </si>
+  <si>
+    <t>2022/07/26</t>
+  </si>
+  <si>
+    <t>2022/07/27</t>
+  </si>
+  <si>
+    <t>2022/07/28</t>
+  </si>
+  <si>
+    <t>2022/07/29</t>
+  </si>
+  <si>
+    <t>2022/07/30</t>
+  </si>
+  <si>
+    <t>2022/07/31</t>
+  </si>
+  <si>
+    <t>2022/08/01</t>
+  </si>
+  <si>
+    <t>2022/08/02</t>
+  </si>
+  <si>
+    <t>2022/08/03</t>
+  </si>
+  <si>
+    <t>2022/08/04</t>
+  </si>
+  <si>
+    <t>2022/08/05</t>
+  </si>
+  <si>
+    <t>2022/08/06</t>
+  </si>
+  <si>
+    <t>2022/08/07</t>
+  </si>
+  <si>
+    <t>2022/08/08</t>
+  </si>
+  <si>
+    <t>2022/08/09</t>
+  </si>
+  <si>
+    <t>2022/08/10</t>
+  </si>
+  <si>
+    <t>2022/08/11</t>
+  </si>
+  <si>
+    <t>2022/08/12</t>
+  </si>
+  <si>
+    <t>2022/08/13</t>
+  </si>
+  <si>
+    <t>2022/08/14</t>
+  </si>
+  <si>
+    <t>2022/08/15</t>
+  </si>
+  <si>
+    <t>2022/08/16</t>
+  </si>
+  <si>
+    <t>2022/08/17</t>
+  </si>
+  <si>
+    <t>2022/08/18</t>
+  </si>
+  <si>
+    <t>2022/08/19</t>
+  </si>
+  <si>
+    <t>2022/08/20</t>
+  </si>
+  <si>
+    <t>2022/08/21</t>
+  </si>
+  <si>
+    <t>2022/08/22</t>
+  </si>
+  <si>
+    <t>2022/08/23</t>
+  </si>
+  <si>
+    <t>2022/08/24</t>
+  </si>
+  <si>
+    <t>2022/08/25</t>
+  </si>
+  <si>
+    <t>2022/08/26</t>
+  </si>
+  <si>
+    <t>2022/08/27</t>
+  </si>
+  <si>
+    <t>2022/08/28</t>
+  </si>
+  <si>
+    <t>2022/08/29</t>
+  </si>
+  <si>
+    <t>2022/08/30</t>
+  </si>
+  <si>
+    <t>2022/08/31</t>
+  </si>
+  <si>
+    <t>2022/09/01</t>
+  </si>
+  <si>
+    <t>2022/09/02</t>
+  </si>
+  <si>
+    <t>2022/09/03</t>
+  </si>
+  <si>
+    <t>2022/09/04</t>
+  </si>
+  <si>
+    <t>2022/09/05</t>
+  </si>
+  <si>
+    <t>2022/09/06</t>
+  </si>
+  <si>
+    <t>2022/09/07</t>
+  </si>
+  <si>
+    <t>2022/09/08</t>
+  </si>
+  <si>
+    <t>2022/09/09</t>
+  </si>
+  <si>
+    <t>2022/09/10</t>
+  </si>
+  <si>
+    <t>2022/09/11</t>
+  </si>
+  <si>
+    <t>2022/09/12</t>
+  </si>
+  <si>
+    <t>2022/09/13</t>
+  </si>
+  <si>
+    <t>2022/09/14</t>
+  </si>
+  <si>
+    <t>2022/09/15</t>
+  </si>
+  <si>
+    <t>2022/09/16</t>
+  </si>
+  <si>
+    <t>2022/09/17</t>
+  </si>
+  <si>
+    <t>2022/09/18</t>
+  </si>
+  <si>
+    <t>2022/09/19</t>
+  </si>
+  <si>
+    <t>2022/09/20</t>
+  </si>
+  <si>
+    <t>2022/09/21</t>
+  </si>
+  <si>
+    <t>2022/09/23</t>
+  </si>
+  <si>
+    <t>2022/09/24</t>
+  </si>
+  <si>
+    <t>2022/09/26</t>
+  </si>
+  <si>
+    <t>2022/09/27</t>
+  </si>
+  <si>
+    <t>2022/09/28</t>
+  </si>
+  <si>
+    <t>2022/09/29</t>
+  </si>
+  <si>
+    <t>2022/09/30</t>
+  </si>
+  <si>
+    <t>2022/10/02</t>
+  </si>
+  <si>
+    <t>2022/10/03</t>
+  </si>
+  <si>
+    <t>2022/10/04</t>
+  </si>
+  <si>
+    <t>2022/10/05</t>
+  </si>
+  <si>
+    <t>2022/10/06</t>
+  </si>
+  <si>
+    <t>2022/10/07</t>
+  </si>
+  <si>
+    <t>2022/10/08</t>
+  </si>
+  <si>
+    <t>2022/10/09</t>
+  </si>
+  <si>
+    <t>2022/10/10</t>
+  </si>
+  <si>
+    <t>2022/10/11</t>
+  </si>
+  <si>
+    <t>2022/10/13</t>
+  </si>
+  <si>
+    <t>2022/10/14</t>
+  </si>
+  <si>
+    <t>2022/10/16</t>
+  </si>
+  <si>
+    <t>2022/10/17</t>
+  </si>
+  <si>
+    <t>2022/10/18</t>
+  </si>
+  <si>
+    <t>2022/10/19</t>
+  </si>
+  <si>
+    <t>2022/10/20</t>
+  </si>
+  <si>
+    <t>2022/10/21</t>
+  </si>
+  <si>
+    <t>2022/10/22</t>
+  </si>
+  <si>
+    <t>2022/10/23</t>
+  </si>
+  <si>
+    <t>2022/10/24</t>
+  </si>
+  <si>
+    <t>2022/10/25</t>
+  </si>
+  <si>
+    <t>2022/10/26</t>
+  </si>
+  <si>
+    <t>2022/10/27</t>
+  </si>
+  <si>
+    <t>2022/10/28</t>
+  </si>
+  <si>
+    <t>2022/10/29</t>
+  </si>
+  <si>
+    <t>2022/10/30</t>
+  </si>
+  <si>
+    <t>2022/10/31</t>
+  </si>
+  <si>
+    <t>2022/11/01</t>
+  </si>
+  <si>
+    <t>2022/11/02</t>
+  </si>
+  <si>
+    <t>2022/11/03</t>
+  </si>
+  <si>
+    <t>2022/11/04</t>
+  </si>
+  <si>
+    <t>2022/11/05</t>
+  </si>
+  <si>
+    <t>2022/11/06</t>
+  </si>
+  <si>
+    <t>2022/11/07</t>
   </si>
 </sst>
 </file>
@@ -69,8 +576,8 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="22">
@@ -89,64 +596,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,8 +632,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +699,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +716,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -217,10 +724,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,103 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,6 +786,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,7 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +965,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -477,22 +995,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,78 +1041,73 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,97 +1116,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,6 +1269,11 @@
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F8CBAD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,11 +1295,12 @@
       <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr defTabSz="914400">
@@ -845,10 +1358,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -862,10 +1372,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -879,9 +1386,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -895,7 +1400,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -909,7 +1416,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -923,7 +1430,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -937,10 +1444,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F8CBAD"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -954,10 +1458,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -971,7 +1472,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -985,10 +1486,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1002,10 +1500,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1014,6 +1509,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1022,7 +1518,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1075,79 +1571,79 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>好</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>嫌</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>無</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>喜</c:v>
-                </c:pt>
                 <c:pt idx="4" c:formatCode="General">
-                  <c:v>哀</c:v>
+                  <c:v>怖</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="General">
                   <c:v>昂</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="General">
+                  <c:v>怒</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>哀</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>安</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>怖</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>怒</c:v>
-                </c:pt>
                 <c:pt idx="9" c:formatCode="General">
-                  <c:v>恥</c:v>
+                  <c:v>驚</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="General">
-                  <c:v>驚</c:v>
+                  <c:v>恥</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$L$5</c:f>
+              <c:f>Sheet1!$B$174:$L$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>332</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>494</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>276</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1659,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="655416429"/>
-        <c:axId val="714128222"/>
+        <c:axId val="66913531"/>
+        <c:axId val="396089274"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="655416429"/>
+        <c:axId val="66913531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1686,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1208,7 +1704,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714128222"/>
+        <c:crossAx val="396089274"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="714128222"/>
+        <c:axId val="396089274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1733,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1248,7 +1744,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1266,7 +1762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655416429"/>
+        <c:crossAx val="66913531"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1321,17 +1817,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr defTabSz="914400">
@@ -1348,7 +1845,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>各感情の合計値</a:t>
+              <a:t>各感情の割合</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1371,22 +1868,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
+          <c:spPr/>
           <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1396,13 +1890,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1412,12 +1905,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1427,10 +1920,14 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1440,10 +1937,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1453,10 +1952,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1466,13 +1967,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F8CBAD"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1482,13 +1982,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1498,10 +1997,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1511,13 +2012,12 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1527,18 +2027,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1547,7 +2047,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1600,79 +2100,79 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" c:formatCode="General">
+                  <c:v>喜</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>好</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>嫌</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>無</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>喜</c:v>
-                </c:pt>
                 <c:pt idx="4" c:formatCode="General">
-                  <c:v>哀</c:v>
+                  <c:v>怖</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="General">
                   <c:v>昂</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="General">
+                  <c:v>怒</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="General">
+                  <c:v>哀</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>安</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
-                  <c:v>怖</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="General">
-                  <c:v>怒</c:v>
-                </c:pt>
                 <c:pt idx="9" c:formatCode="General">
-                  <c:v>恥</c:v>
+                  <c:v>驚</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="General">
-                  <c:v>驚</c:v>
+                  <c:v>恥</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$L$6</c:f>
+              <c:f>Sheet1!$B$175:$L$175</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.133979015334948</c:v>
+                  <c:v>0.227272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158595641646489</c:v>
+                  <c:v>0.16538882803943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0770782889426957</c:v>
+                  <c:v>0.156078860898138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.199354317998386</c:v>
+                  <c:v>0.126506024096386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0766747376916868</c:v>
+                  <c:v>0.0865279299014239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0899919289749798</c:v>
+                  <c:v>0.0640744797371303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0355125100887813</c:v>
+                  <c:v>0.0558598028477547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11138014527845</c:v>
+                  <c:v>0.0514786418400876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0645682001614205</c:v>
+                  <c:v>0.0323110624315444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0092816787732042</c:v>
+                  <c:v>0.031763417305586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0435835351089588</c:v>
+                  <c:v>0.00273822562979189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +2209,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -1756,9 +2256,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1769,8 +2271,42 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2278,7 +2814,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2335,7 +2871,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2386,6 +2922,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2396,12 +2939,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2439,7 +2989,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2482,22 +3032,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2602,8 +3153,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2735,19 +3286,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2784,25 +3336,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="768985" y="1192530"/>
-        <a:ext cx="4844415" cy="2743200"/>
+        <a:off x="398780" y="28987115"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2814,25 +3366,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>269240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393065</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5708015" y="1113790"/>
-        <a:ext cx="5031740" cy="2657475"/>
+        <a:off x="5134610" y="28971875"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3127,16 +3679,574 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="12.7964601769912"/>
   </cols>
@@ -3184,37 +4294,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3222,37 +4332,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3260,136 +4370,6561 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>332</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:L5" si="0">SUM(C2:C4)</f>
-        <v>393</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>494</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="M5">
-        <f>SUM(B5:L5)</f>
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:L6" si="1">B5/$M5</f>
-        <v>0.133979015334948</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.158595641646489</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0770782889426957</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.199354317998386</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0766747376916868</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0899919289749798</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0355125100887813</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11138014527845</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0645682001614205</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0092816787732042</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0435835351089588</v>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174">
+        <f>SUM(B2:B173)</f>
+        <v>415</v>
+      </c>
+      <c r="C174">
+        <f>SUM(C2:C173)</f>
+        <v>302</v>
+      </c>
+      <c r="D174">
+        <f>SUM(D2:D173)</f>
+        <v>285</v>
+      </c>
+      <c r="E174">
+        <f>SUM(E2:E173)</f>
+        <v>231</v>
+      </c>
+      <c r="F174">
+        <f>SUM(F2:F173)</f>
+        <v>158</v>
+      </c>
+      <c r="G174">
+        <f>SUM(G2:G173)</f>
+        <v>117</v>
+      </c>
+      <c r="H174">
+        <f>SUM(H2:H173)</f>
+        <v>102</v>
+      </c>
+      <c r="I174">
+        <f>SUM(I2:I173)</f>
+        <v>94</v>
+      </c>
+      <c r="J174">
+        <f>SUM(J2:J173)</f>
+        <v>59</v>
+      </c>
+      <c r="K174">
+        <f>SUM(K2:K173)</f>
+        <v>58</v>
+      </c>
+      <c r="L174">
+        <f>SUM(L2:L173)</f>
+        <v>5</v>
+      </c>
+      <c r="M174">
+        <f>SUM(B174:L174)</f>
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="2">
+        <f>B174/$M174</f>
+        <v>0.227272727272727</v>
+      </c>
+      <c r="C175" s="2">
+        <f>C174/$M174</f>
+        <v>0.16538882803943</v>
+      </c>
+      <c r="D175" s="2">
+        <f>D174/$M174</f>
+        <v>0.156078860898138</v>
+      </c>
+      <c r="E175" s="2">
+        <f>E174/$M174</f>
+        <v>0.126506024096386</v>
+      </c>
+      <c r="F175" s="2">
+        <f>F174/$M174</f>
+        <v>0.0865279299014239</v>
+      </c>
+      <c r="G175" s="2">
+        <f>G174/$M174</f>
+        <v>0.0640744797371303</v>
+      </c>
+      <c r="H175" s="2">
+        <f>H174/$M174</f>
+        <v>0.0558598028477547</v>
+      </c>
+      <c r="I175" s="2">
+        <f>I174/$M174</f>
+        <v>0.0514786418400876</v>
+      </c>
+      <c r="J175" s="2">
+        <f>J174/$M174</f>
+        <v>0.0323110624315444</v>
+      </c>
+      <c r="K175" s="2">
+        <f>K174/$M174</f>
+        <v>0.031763417305586</v>
+      </c>
+      <c r="L175" s="2">
+        <f>L174/$M174</f>
+        <v>0.00273822562979189</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B1:L175" columnSort="1">
+    <sortCondition ref="B174:L174" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
